--- a/project/model/categories.xlsx
+++ b/project/model/categories.xlsx
@@ -47,6 +47,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">강아지 사료</t>
     </r>
@@ -78,6 +79,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">강아지 간식</t>
     </r>
@@ -109,6 +111,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">강아지 영양제</t>
     </r>
@@ -140,6 +143,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">강아지 용품</t>
     </r>
@@ -171,6 +175,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">고양이 사료</t>
     </r>
@@ -202,6 +207,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">고양이 간식</t>
     </r>
@@ -233,6 +239,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">고양이 영양제</t>
     </r>
@@ -264,6 +271,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">고양이 용품</t>
     </r>
@@ -295,6 +303,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">공통</t>
     </r>
@@ -323,6 +332,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK KR"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -436,10 +446,15 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.7890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.18"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">

--- a/project/model/categories.xlsx
+++ b/project/model/categories.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="12">
   <si>
     <t xml:space="preserve">categoryID</t>
   </si>
@@ -47,7 +47,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">강아지 사료</t>
     </r>
@@ -79,7 +78,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">강아지 간식</t>
     </r>
@@ -111,7 +109,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">강아지 영양제</t>
     </r>
@@ -143,7 +140,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">강아지 용품</t>
     </r>
@@ -175,7 +171,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">고양이 사료</t>
     </r>
@@ -207,7 +202,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">고양이 간식</t>
     </r>
@@ -239,7 +233,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">고양이 영양제</t>
     </r>
@@ -271,7 +264,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">고양이 용품</t>
     </r>
@@ -303,7 +295,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK KR"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">공통</t>
     </r>
@@ -332,7 +323,6 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK KR"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -443,18 +433,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.18"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -822,7 +807,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>486542</v>
+        <v>118922</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -836,7 +821,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>118922</v>
+        <v>373649</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -850,7 +835,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>373649</v>
+        <v>225106</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -864,13 +849,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>225106</v>
+        <v>445860</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,7 +863,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>445860</v>
+        <v>445861</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
@@ -892,7 +877,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>445861</v>
+        <v>445862</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
@@ -906,7 +891,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>445862</v>
+        <v>445863</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>7</v>
@@ -920,7 +905,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>445863</v>
+        <v>446151</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>7</v>
@@ -934,7 +919,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>446151</v>
+        <v>509026</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
@@ -948,10 +933,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>509026</v>
+        <v>119522</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>1</v>
@@ -962,7 +947,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>119522</v>
+        <v>119499</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
@@ -976,7 +961,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>119499</v>
+        <v>120216</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
@@ -990,7 +975,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>120216</v>
+        <v>119501</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
@@ -1004,7 +989,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>119501</v>
+        <v>119502</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
@@ -1018,7 +1003,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>119502</v>
+        <v>119503</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>8</v>
@@ -1032,7 +1017,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>119503</v>
+        <v>119504</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
@@ -1046,7 +1031,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>119504</v>
+        <v>119505</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
@@ -1060,7 +1045,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>119505</v>
+        <v>119506</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
@@ -1074,7 +1059,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>119506</v>
+        <v>120217</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
@@ -1088,7 +1073,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>120217</v>
+        <v>445864</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
@@ -1102,10 +1087,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>445864</v>
+        <v>486332</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>1</v>
@@ -1116,7 +1101,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>486332</v>
+        <v>486342</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1130,10 +1115,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>486342</v>
+        <v>119567</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>1</v>
@@ -1144,7 +1129,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>119567</v>
+        <v>119562</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -1158,7 +1143,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>119562</v>
+        <v>119561</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -1172,7 +1157,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>119561</v>
+        <v>157054</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -1186,7 +1171,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>157054</v>
+        <v>119558</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -1200,7 +1185,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>119558</v>
+        <v>385076</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -1214,7 +1199,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>385076</v>
+        <v>119568</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -1228,7 +1213,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>119568</v>
+        <v>486545</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -1242,7 +1227,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>486545</v>
+        <v>119564</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -1256,7 +1241,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>119564</v>
+        <v>119559</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -1270,7 +1255,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>119559</v>
+        <v>225107</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -1284,13 +1269,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>225107</v>
+        <v>381523</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,7 +1283,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>381523</v>
+        <v>381526</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
@@ -1312,7 +1297,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>381526</v>
+        <v>381527</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
@@ -1326,7 +1311,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>381527</v>
+        <v>381528</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
@@ -1340,7 +1325,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>381528</v>
+        <v>381529</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
@@ -1354,7 +1339,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>381529</v>
+        <v>381532</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
@@ -1368,7 +1353,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>381532</v>
+        <v>381535</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
@@ -1382,7 +1367,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>381535</v>
+        <v>381538</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
@@ -1396,7 +1381,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>381538</v>
+        <v>381539</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
@@ -1410,26 +1395,12 @@
         <v>67</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>381539</v>
+        <v>381540</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <v>381540</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="0" t="n">
         <v>-1</v>
       </c>
     </row>
